--- a/biology/Zoologie/Goniurosaurus_sengokui/Goniurosaurus_sengokui.xlsx
+++ b/biology/Zoologie/Goniurosaurus_sengokui/Goniurosaurus_sengokui.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Goniurosaurus sengokui est une espèce de geckos de la famille des Eublepharidae endémique au Japon[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Goniurosaurus sengokui est une espèce de geckos de la famille des Eublepharidae endémique au Japon.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épithète spécifique, sengokui, est dédié à Showichi Sengoku un herpétologiste japonais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique, sengokui, est dédié à Showichi Sengoku un herpétologiste japonais.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Honda, Masanao and Hidetoshi Ota, 2017 : On the Live Coloration and Partial Mitochondrial DNA Sequences in the Topotypic Population of Goniurosaurus kuroiwae orientalis (Squamata: Eublepharidae), with Description of a New Subspecies from Tokashikijima Island, Ryukyu Archipelago, Japan. Asian Herpetological Research vol. 8 no 2, p. 96-107 ((en) texte intégral)</t>
         </is>
